--- a/Docs/NUEVOS-GRUPOS.xlsx
+++ b/Docs/NUEVOS-GRUPOS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UCONT\UC-2022-10-17581\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4739F8D4-6F83-44A6-B84E-256102C97ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09FD5A7-9BC8-4059-A283-0E9D8517E011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5655" yWindow="2025" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calificaciones" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>DANNY YUHOEL</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
   </si>
 </sst>
 </file>
@@ -677,12 +686,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -704,15 +712,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="2" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
-        <v>2000</v>
+      <c r="C2" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
@@ -722,22 +730,22 @@
       <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C3" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -748,18 +756,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="6" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C6" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
@@ -770,7 +778,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="8" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -781,7 +789,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -799,11 +807,11 @@
       <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C10" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
@@ -814,7 +822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="12" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -832,11 +840,11 @@
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C13" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -847,7 +855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="15" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="6" t="s">
         <v>25</v>
       </c>
@@ -858,7 +866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="16" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="6" t="s">
         <v>27</v>
       </c>
@@ -869,29 +877,29 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="17" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C17" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C18" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
@@ -902,15 +910,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="20" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="7">
-        <v>2000</v>
+      <c r="C20" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
@@ -920,11 +928,11 @@
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="7">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C21" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>39</v>
       </c>
@@ -935,7 +943,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="23" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
@@ -946,7 +954,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="24" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>43</v>
       </c>
@@ -957,7 +965,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="25" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>45</v>
       </c>
@@ -968,18 +976,18 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="2" customFormat="1" ht="24.75" hidden="1" customHeight="1">
+    <row r="26" spans="1:3" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="7">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+      <c r="C26" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>49</v>
       </c>
@@ -990,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="28" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A28" s="6" t="s">
         <v>51</v>
       </c>
@@ -1001,7 +1009,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="29" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
@@ -1012,7 +1020,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="30" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>55</v>
       </c>
@@ -1023,23 +1031,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="2" customFormat="1" ht="24.95" hidden="1" customHeight="1">
+    <row r="31" spans="1:3" s="2" customFormat="1" ht="24.95" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="7">
-        <v>1000</v>
+      <c r="C31" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C31" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C31" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>